--- a/LF 5/DBMS/NRM_03_Warenwirtschaft_Aufgabe.xlsx
+++ b/LF 5/DBMS/NRM_03_Warenwirtschaft_Aufgabe.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="47">
   <si>
     <t xml:space="preserve">Nicht normalisierte DB</t>
   </si>
@@ -547,9 +547,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>466560</xdr:colOff>
+      <xdr:colOff>466200</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>340920</xdr:rowOff>
+      <xdr:rowOff>340560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -563,7 +563,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13474080" y="104760"/>
-          <a:ext cx="1386720" cy="618480"/>
+          <a:ext cx="1386360" cy="618120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -760,8 +760,8 @@
   </sheetPr>
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P26" activeCellId="0" sqref="P26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R29" activeCellId="0" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1371,9 +1371,7 @@
       <c r="P23" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="Q23" s="23" t="n">
-        <v>10</v>
-      </c>
+      <c r="Q23" s="23"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="21" t="n">
@@ -1418,9 +1416,7 @@
       <c r="P24" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="Q24" s="23" t="s">
-        <v>41</v>
-      </c>
+      <c r="Q24" s="23"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="21" t="n">
@@ -1465,9 +1461,7 @@
       <c r="P25" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="Q25" s="23" t="n">
-        <v>89</v>
-      </c>
+      <c r="Q25" s="23"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="21" t="n">
